--- a/docs/assets/docs/charity-info-sheet.xlsx
+++ b/docs/assets/docs/charity-info-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\OneDrive - Shawn Weisfeld\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{AD65B052-B393-46B8-85C6-D9642D8F8908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C89A254-E64D-4B65-B663-7E8F8D508BDF}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{AD65B052-B393-46B8-85C6-D9642D8F8908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECCF9B5E-AA22-4EA8-B9C5-4DE8FB69024F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{0EAF4F91-6082-4608-835F-EBD8B20E8D48}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Charity Info Sheet</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Hosting Control Pannel URL:</t>
+  </si>
+  <si>
+    <t>Wordpress:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WordPress is the content management system that we use to build many of the Dallas GiveCamp sites. This is where you edit the content of your website. </t>
+  </si>
+  <si>
+    <t>Wordpress Admin URL:</t>
+  </si>
+  <si>
+    <t>&lt;put value here&gt; (i.e. http://www.yoursite.com/wp-admin)</t>
   </si>
 </sst>
 </file>
@@ -157,17 +169,17 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466C8E7D-5ACB-4541-8AAB-EA3DE909F54D}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -495,37 +507,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -543,18 +555,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -562,7 +574,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -570,7 +582,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
@@ -578,7 +590,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
@@ -591,18 +603,18 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B18" t="s">
@@ -615,18 +627,18 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
@@ -634,7 +646,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -642,7 +654,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
@@ -655,18 +667,18 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="45.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
@@ -674,7 +686,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
@@ -682,22 +694,63 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/assets/docs/charity-info-sheet.xlsx
+++ b/docs/assets/docs/charity-info-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\OneDrive - Shawn Weisfeld\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{AD65B052-B393-46B8-85C6-D9642D8F8908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECCF9B5E-AA22-4EA8-B9C5-4DE8FB69024F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{AD65B052-B393-46B8-85C6-D9642D8F8908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40986B93-0D27-4FEF-A44C-4F45C00256DD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{0EAF4F91-6082-4608-835F-EBD8B20E8D48}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>&lt;Insert Charity Name&gt;</t>
   </si>
   <si>
-    <t>A web proxy sits between your host and your users. It provides features like caching (to improve site performance), free SSL certificates (to improve security and search rainkings), and firewalls (to block/challenge unexpected groups of users). We have had good luck with Cloudflare, and they offer a free tier. Using a web proxy is optional.</t>
-  </si>
-  <si>
     <t>Hosting:</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>&lt;put value here&gt; (i.e. http://www.yoursite.com/wp-admin)</t>
+  </si>
+  <si>
+    <t>Cloudflare is a web proxy. It sits between your host and your users. It provides features like caching (to improve site performance), free SSL certificates (to improve security and search rankings), and firewalls (to block/challenge unexpected groups of users). We have had good luck with Cloudflare, and they offer a free tier. Using a web proxy is optional.</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466C8E7D-5ACB-4541-8AAB-EA3DE909F54D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -628,7 +628,7 @@
     </row>
     <row r="21" spans="1:7" ht="61.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -663,12 +663,12 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -679,10 +679,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -703,12 +703,12 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -719,10 +719,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
         <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
